--- a/tu-da-hoc-tren-cty.xlsx
+++ b/tu-da-hoc-tren-cty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\日本語\jp_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21920CC7-11D0-499A-BD26-E41913BF76B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A626D90B-1AB0-4566-BD3A-9813D4323DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B5C92A4-BC93-4E98-B3C8-5639172B51DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>えらびます</t>
   </si>
@@ -306,6 +306,249 @@
   </si>
   <si>
     <t>mạnh</t>
+  </si>
+  <si>
+    <t>はります</t>
+  </si>
+  <si>
+    <t>かけます</t>
+  </si>
+  <si>
+    <t>ならべます</t>
+  </si>
+  <si>
+    <t>しまいます</t>
+  </si>
+  <si>
+    <t>のせます</t>
+  </si>
+  <si>
+    <t>おろします</t>
+  </si>
+  <si>
+    <t>ふきます</t>
+  </si>
+  <si>
+    <t>そのままにします</t>
+  </si>
+  <si>
+    <t>じゅんびします</t>
+  </si>
+  <si>
+    <t>かべ</t>
+  </si>
+  <si>
+    <t>たな</t>
+  </si>
+  <si>
+    <t>ひきだし</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>カレンダー</t>
+  </si>
+  <si>
+    <t>ポスター</t>
+  </si>
+  <si>
+    <t>れいぞうこ</t>
+  </si>
+  <si>
+    <t>ハンガー</t>
+  </si>
+  <si>
+    <t>そうこ</t>
+  </si>
+  <si>
+    <t>だい</t>
+  </si>
+  <si>
+    <t>こうぐ</t>
+  </si>
+  <si>
+    <t>ドリル</t>
+  </si>
+  <si>
+    <t>ハンマー</t>
+  </si>
+  <si>
+    <t>さぎょう</t>
+  </si>
+  <si>
+    <t>もとのところ</t>
+  </si>
+  <si>
+    <t>まわり</t>
+  </si>
+  <si>
+    <t>まんなか</t>
+  </si>
+  <si>
+    <t>しりょう</t>
+  </si>
+  <si>
+    <t>まだ</t>
+  </si>
+  <si>
+    <t>ちゃんと</t>
+  </si>
+  <si>
+    <t>ごくろうさま</t>
+  </si>
+  <si>
+    <t>貼ります</t>
+  </si>
+  <si>
+    <t>掛けます</t>
+  </si>
+  <si>
+    <t>並べます</t>
+  </si>
+  <si>
+    <t>載せます</t>
+  </si>
+  <si>
+    <t>降ろします</t>
+  </si>
+  <si>
+    <t>拭きます</t>
+  </si>
+  <si>
+    <t>壁</t>
+  </si>
+  <si>
+    <t>棚</t>
+  </si>
+  <si>
+    <t>引き出し</t>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+  </si>
+  <si>
+    <t>倉庫</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>作業</t>
+  </si>
+  <si>
+    <t>元の所</t>
+  </si>
+  <si>
+    <t>周り</t>
+  </si>
+  <si>
+    <t>真ん中</t>
+  </si>
+  <si>
+    <t>資料</t>
+  </si>
+  <si>
+    <t>ご苦労様</t>
+  </si>
+  <si>
+    <t>dán</t>
+  </si>
+  <si>
+    <t>treo</t>
+  </si>
+  <si>
+    <t>Bày biện, sắp xếp, xếp hàng</t>
+  </si>
+  <si>
+    <t>cất</t>
+  </si>
+  <si>
+    <t>chất lên</t>
+  </si>
+  <si>
+    <t>đem xuống, dỡ xuống</t>
+  </si>
+  <si>
+    <t>lau, lau chùi</t>
+  </si>
+  <si>
+    <t>để, giữ nguyên như thế</t>
+  </si>
+  <si>
+    <t>chuẩn bị</t>
+  </si>
+  <si>
+    <t>tường</t>
+  </si>
+  <si>
+    <t>giá, kệ sách</t>
+  </si>
+  <si>
+    <t>ngăn kéo</t>
+  </si>
+  <si>
+    <t>bàn tròn</t>
+  </si>
+  <si>
+    <t>lịch</t>
+  </si>
+  <si>
+    <t>áp phích</t>
+  </si>
+  <si>
+    <t>tủ lạnh</t>
+  </si>
+  <si>
+    <t>móc áo, treo quần áo</t>
+  </si>
+  <si>
+    <t>kho, nhà kho</t>
+  </si>
+  <si>
+    <t>kệ, bệ, giá</t>
+  </si>
+  <si>
+    <t>công cụ</t>
+  </si>
+  <si>
+    <t>cái khoan, máy khoan</t>
+  </si>
+  <si>
+    <t>cái búa</t>
+  </si>
+  <si>
+    <t>thao tác</t>
+  </si>
+  <si>
+    <t>chỗ cũ</t>
+  </si>
+  <si>
+    <t>xung quanh</t>
+  </si>
+  <si>
+    <t>chính giữa</t>
+  </si>
+  <si>
+    <t>tài liệu</t>
+  </si>
+  <si>
+    <t>còn, chưa</t>
+  </si>
+  <si>
+    <t>làm sạch sẽ</t>
+  </si>
+  <si>
+    <t>ngay ngắn, cẩn thận</t>
+  </si>
+  <si>
+    <t>cảm ơn anh đã vất vã</t>
+  </si>
+  <si>
+    <t>きれいに</t>
   </si>
 </sst>
 </file>
@@ -698,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9766C5-377E-4030-93B0-E189C4D323FF}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1162,6 +1405,404 @@
         <v>28</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H61" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H64" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H66" s="4">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
